--- a/참고자료/GEP_MASTER_V1.0_2248추가.xlsx
+++ b/참고자료/GEP_MASTER_V1.0_2248추가.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Project\GEPv1.0\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09B159-F2FD-4505-9A90-89790E1FE51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7179AB6-D638-4800-9A63-7C31281607C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14964,13 +14964,14 @@
   <dimension ref="A1:O1442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="321" topLeftCell="A1323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1323" sqref="K1323"/>
+      <pane ySplit="321" topLeftCell="A1606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="87.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15021,7 +15022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15100,7 +15101,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15214,7 +15215,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15290,7 +15291,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15366,7 +15367,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15480,7 +15481,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15632,7 +15633,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15670,7 +15671,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15746,7 +15747,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15936,7 +15937,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15974,7 +15975,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16050,7 +16051,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16126,7 +16127,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16354,7 +16355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16392,7 +16393,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16468,7 +16469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16886,7 +16887,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16924,7 +16925,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16962,7 +16963,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17038,7 +17039,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17076,7 +17077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17114,7 +17115,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17152,7 +17153,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17345,7 +17346,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17714,7 +17715,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17796,7 +17797,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17878,7 +17879,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17960,7 +17961,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18042,7 +18043,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18124,7 +18125,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18165,7 +18166,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18206,7 +18207,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -18247,7 +18248,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18288,7 +18289,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -18329,7 +18330,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -18411,7 +18412,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -18452,7 +18453,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -18534,7 +18535,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18698,7 +18699,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -18903,7 +18904,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19026,7 +19027,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -19067,7 +19068,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -19108,7 +19109,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -19149,7 +19150,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -19313,7 +19314,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19395,7 +19396,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19559,7 +19560,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19641,7 +19642,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19682,7 +19683,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19723,7 +19724,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -19805,7 +19806,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -19887,7 +19888,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -20010,7 +20011,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -20051,7 +20052,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -20092,7 +20093,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -20133,7 +20134,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -20174,7 +20175,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -20256,7 +20257,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -20297,7 +20298,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -20338,7 +20339,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -20379,7 +20380,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -20502,7 +20503,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20625,7 +20626,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20666,7 +20667,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20707,7 +20708,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20748,7 +20749,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -20871,7 +20872,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21076,7 +21077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -21117,7 +21118,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -21158,7 +21159,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -21199,7 +21200,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -21240,7 +21241,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -21281,7 +21282,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -21322,7 +21323,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -21363,7 +21364,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -21404,7 +21405,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -21442,7 +21443,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -21480,7 +21481,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -21518,7 +21519,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -21556,7 +21557,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -21708,7 +21709,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -21746,7 +21747,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -21784,7 +21785,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -21822,7 +21823,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -21860,7 +21861,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -21898,7 +21899,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -21936,7 +21937,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -21974,7 +21975,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -22012,7 +22013,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -22126,7 +22127,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -22164,7 +22165,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -22202,7 +22203,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -22278,7 +22279,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -22316,7 +22317,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -22354,7 +22355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -22392,7 +22393,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -22430,7 +22431,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -22468,7 +22469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -22506,7 +22507,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -22544,7 +22545,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -22620,7 +22621,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -22658,7 +22659,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -22696,7 +22697,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -22734,7 +22735,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -22772,7 +22773,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -22810,7 +22811,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22848,7 +22849,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22886,7 +22887,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22962,7 +22963,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -23000,7 +23001,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -23038,7 +23039,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -23076,7 +23077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -23114,7 +23115,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -23152,7 +23153,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -23190,7 +23191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -23266,7 +23267,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -23304,7 +23305,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -23342,7 +23343,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -23380,7 +23381,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -23418,7 +23419,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -23456,7 +23457,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -23494,7 +23495,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -23532,7 +23533,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23570,7 +23571,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23608,7 +23609,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -23646,7 +23647,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23725,7 +23726,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23766,7 +23767,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23807,7 +23808,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23848,7 +23849,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23889,7 +23890,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23930,7 +23931,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23971,7 +23972,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24012,7 +24013,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -24053,7 +24054,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -24094,7 +24095,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -24176,7 +24177,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -24217,7 +24218,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -24258,7 +24259,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24299,7 +24300,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -24340,7 +24341,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -24381,7 +24382,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -24422,7 +24423,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -24463,7 +24464,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -24504,7 +24505,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24545,7 +24546,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24586,7 +24587,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24627,7 +24628,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24668,7 +24669,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24709,7 +24710,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24750,7 +24751,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24791,7 +24792,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -24832,7 +24833,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -24873,7 +24874,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -24914,7 +24915,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24955,7 +24956,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -24996,7 +24997,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -25037,7 +25038,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -25078,7 +25079,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25119,7 +25120,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25160,7 +25161,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -25201,7 +25202,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -25242,7 +25243,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -25283,7 +25284,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -25324,7 +25325,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -25406,7 +25407,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -25447,7 +25448,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -25488,7 +25489,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -25529,7 +25530,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -25570,7 +25571,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -25652,7 +25653,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -25693,7 +25694,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -25734,7 +25735,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -25775,7 +25776,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -25816,7 +25817,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -25857,7 +25858,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -25898,7 +25899,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -25980,7 +25981,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -26021,7 +26022,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -26062,7 +26063,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -26103,7 +26104,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -26144,7 +26145,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -26185,7 +26186,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -26226,7 +26227,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -26267,7 +26268,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -26308,7 +26309,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -26349,7 +26350,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -26390,7 +26391,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -26431,7 +26432,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -26472,7 +26473,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -26513,7 +26514,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -26554,7 +26555,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -26595,7 +26596,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -26636,7 +26637,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -26677,7 +26678,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -26718,7 +26719,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -26759,7 +26760,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -26800,7 +26801,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -26841,7 +26842,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -26882,7 +26883,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -26923,7 +26924,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -26964,7 +26965,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -27005,7 +27006,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -27046,7 +27047,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -27087,7 +27088,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -27169,7 +27170,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -27210,7 +27211,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -27251,7 +27252,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -27292,7 +27293,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -27333,7 +27334,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -27374,7 +27375,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -27415,7 +27416,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -27456,7 +27457,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -27497,7 +27498,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -27538,7 +27539,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -27579,7 +27580,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -27620,7 +27621,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -27661,7 +27662,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -27702,7 +27703,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -27743,7 +27744,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -27822,7 +27823,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27860,7 +27861,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27936,7 +27937,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27974,7 +27975,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -28012,7 +28013,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -28050,7 +28051,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -28088,7 +28089,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -28126,7 +28127,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -28164,7 +28165,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -28202,7 +28203,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -28240,7 +28241,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -28278,7 +28279,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -28316,7 +28317,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -28354,7 +28355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -28392,7 +28393,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28430,7 +28431,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28468,7 +28469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -28506,7 +28507,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28544,7 +28545,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28620,7 +28621,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28658,7 +28659,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28696,7 +28697,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -28734,7 +28735,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="165" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -28772,7 +28773,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -28810,7 +28811,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -28886,7 +28887,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -28924,7 +28925,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -28962,7 +28963,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29000,7 +29001,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29038,7 +29039,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29076,7 +29077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29114,7 +29115,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -29152,7 +29153,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -29190,7 +29191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -29228,7 +29229,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -29266,7 +29267,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -29304,7 +29305,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -29342,7 +29343,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -29380,7 +29381,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -29418,7 +29419,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -29456,7 +29457,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -29494,7 +29495,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -29532,7 +29533,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -29605,7 +29606,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>367</v>
       </c>
@@ -29643,7 +29644,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -29681,7 +29682,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -29719,7 +29720,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -29757,7 +29758,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -29795,7 +29796,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -29833,7 +29834,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -29871,7 +29872,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -29909,7 +29910,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -29947,7 +29948,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -29985,7 +29986,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -30023,7 +30024,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -30061,7 +30062,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -30099,7 +30100,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -30140,7 +30141,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -30181,7 +30182,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -30222,7 +30223,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -30263,7 +30264,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -30304,7 +30305,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -30345,7 +30346,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -30386,7 +30387,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -30427,7 +30428,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -30468,7 +30469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -30509,7 +30510,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -30550,7 +30551,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -30591,7 +30592,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -30632,7 +30633,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -30673,7 +30674,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -30714,7 +30715,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -30755,7 +30756,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -30796,7 +30797,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -30837,7 +30838,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -30878,7 +30879,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -30919,7 +30920,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -30960,7 +30961,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -31001,7 +31002,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -31042,7 +31043,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -31124,7 +31125,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -31165,7 +31166,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -31206,7 +31207,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -31247,7 +31248,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -31288,7 +31289,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" ht="165" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -31329,7 +31330,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -31370,7 +31371,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -31411,7 +31412,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -31452,7 +31453,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -31493,7 +31494,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -31534,7 +31535,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -31575,7 +31576,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -31616,7 +31617,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -31657,7 +31658,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -31698,7 +31699,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -31739,7 +31740,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -31780,7 +31781,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -31821,7 +31822,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -31862,7 +31863,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -31903,7 +31904,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -31944,7 +31945,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -31985,7 +31986,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -32026,7 +32027,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -32067,7 +32068,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -32108,7 +32109,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -32149,7 +32150,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -32190,7 +32191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -32231,7 +32232,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -32272,7 +32273,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -32313,7 +32314,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -32354,7 +32355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -32395,7 +32396,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -32436,7 +32437,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -32477,7 +32478,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -32518,7 +32519,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -32559,7 +32560,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -32600,7 +32601,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -32641,7 +32642,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -32682,7 +32683,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -32723,7 +32724,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -32764,7 +32765,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -32805,7 +32806,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -32846,7 +32847,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -32887,7 +32888,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -32928,7 +32929,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" ht="165" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -32969,7 +32970,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -33010,7 +33011,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -33051,7 +33052,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -33092,7 +33093,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -33133,7 +33134,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" ht="132" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -33174,7 +33175,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -33215,7 +33216,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -33256,7 +33257,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -33297,7 +33298,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -33338,7 +33339,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -33379,7 +33380,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -33420,7 +33421,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -33461,7 +33462,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -33502,7 +33503,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -33543,7 +33544,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -33584,7 +33585,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -33625,7 +33626,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -33666,7 +33667,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -33707,7 +33708,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -33748,7 +33749,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -33789,7 +33790,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -33830,7 +33831,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -33871,7 +33872,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -33912,7 +33913,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -33953,7 +33954,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -33994,7 +33995,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -34035,7 +34036,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -34076,7 +34077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -34117,7 +34118,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -34158,7 +34159,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" ht="99" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -73563,6 +73564,9 @@
   <autoFilter ref="A1:O1442" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="22"/>
         <filter val="30"/>
       </filters>
     </filterColumn>

--- a/참고자료/GEP_MASTER_V1.0_2248추가.xlsx
+++ b/참고자료/GEP_MASTER_V1.0_2248추가.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Project\GEPv1.0\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7179AB6-D638-4800-9A63-7C31281607C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D270AA-3A38-4F21-AC46-3ED226D46778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1442</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14960,12 +14973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="321" topLeftCell="A1606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="321" topLeftCell="A1345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29571,7 +29583,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -34200,7 +34212,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -34241,7 +34253,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -34282,7 +34294,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -34323,7 +34335,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -34364,7 +34376,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -34405,7 +34417,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -34446,7 +34458,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -34487,7 +34499,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -34528,7 +34540,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -34569,7 +34581,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -34610,7 +34622,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -34651,7 +34663,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -34692,7 +34704,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -34733,7 +34745,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -34774,7 +34786,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
@@ -34815,7 +34827,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -34856,7 +34868,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -34897,7 +34909,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
@@ -34938,7 +34950,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
@@ -34979,7 +34991,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
@@ -35020,7 +35032,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
@@ -35061,7 +35073,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
@@ -35102,7 +35114,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
@@ -35143,7 +35155,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
@@ -35184,7 +35196,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
@@ -35225,7 +35237,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
@@ -35266,7 +35278,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
@@ -35307,7 +35319,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
@@ -35348,7 +35360,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
@@ -35389,7 +35401,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
@@ -35430,7 +35442,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
@@ -35471,7 +35483,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
@@ -35512,7 +35524,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
@@ -35553,7 +35565,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
@@ -35594,7 +35606,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
@@ -35635,7 +35647,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
@@ -35676,7 +35688,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
@@ -35717,7 +35729,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
@@ -35758,7 +35770,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
@@ -35799,7 +35811,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
@@ -35840,7 +35852,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
@@ -35881,7 +35893,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
@@ -35922,7 +35934,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
@@ -35963,7 +35975,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
@@ -36004,7 +36016,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
@@ -36045,7 +36057,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
@@ -36086,7 +36098,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
@@ -36127,7 +36139,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
@@ -36168,7 +36180,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
@@ -36209,7 +36221,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
@@ -36250,7 +36262,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
@@ -36291,7 +36303,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
@@ -36332,7 +36344,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
@@ -36373,7 +36385,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -36414,7 +36426,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
@@ -36455,7 +36467,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
@@ -36496,7 +36508,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
@@ -36537,7 +36549,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
@@ -36578,7 +36590,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
@@ -36619,7 +36631,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
@@ -36660,7 +36672,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
@@ -36701,7 +36713,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
@@ -36742,7 +36754,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
@@ -36783,7 +36795,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -36824,7 +36836,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
@@ -36865,7 +36877,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
@@ -36906,7 +36918,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
@@ -36947,7 +36959,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
@@ -36988,7 +37000,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
@@ -37029,7 +37041,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
@@ -37070,7 +37082,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
@@ -37111,7 +37123,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
@@ -37152,7 +37164,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
@@ -37193,7 +37205,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
@@ -37234,7 +37246,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
@@ -37275,7 +37287,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
@@ -37316,7 +37328,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
@@ -37357,7 +37369,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
@@ -37398,7 +37410,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
@@ -37439,7 +37451,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
@@ -37480,7 +37492,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
@@ -37521,7 +37533,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
@@ -37562,7 +37574,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
@@ -37603,7 +37615,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
@@ -37644,7 +37656,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
@@ -37685,7 +37697,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>566</v>
       </c>
@@ -37726,7 +37738,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
@@ -37767,7 +37779,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
@@ -37808,7 +37820,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>569</v>
       </c>
@@ -37849,7 +37861,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>570</v>
       </c>
@@ -37890,7 +37902,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>571</v>
       </c>
@@ -37931,7 +37943,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>572</v>
       </c>
@@ -37972,7 +37984,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
@@ -38013,7 +38025,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
@@ -38054,7 +38066,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>575</v>
       </c>
@@ -38095,7 +38107,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>576</v>
       </c>
@@ -38136,7 +38148,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>577</v>
       </c>
@@ -38177,7 +38189,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>578</v>
       </c>
@@ -38218,7 +38230,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
@@ -38259,7 +38271,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
@@ -38300,7 +38312,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
@@ -38341,7 +38353,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>582</v>
       </c>
@@ -38382,7 +38394,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
@@ -38423,7 +38435,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
@@ -38464,7 +38476,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>585</v>
       </c>
@@ -38505,7 +38517,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>586</v>
       </c>
@@ -38546,7 +38558,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>587</v>
       </c>
@@ -38587,7 +38599,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>588</v>
       </c>
@@ -38628,7 +38640,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
@@ -38669,7 +38681,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
@@ -38710,7 +38722,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>591</v>
       </c>
@@ -38751,7 +38763,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>592</v>
       </c>
@@ -38792,7 +38804,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>593</v>
       </c>
@@ -38833,7 +38845,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>594</v>
       </c>
@@ -38874,7 +38886,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>595</v>
       </c>
@@ -38915,7 +38927,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
@@ -38956,7 +38968,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
@@ -38997,7 +39009,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>598</v>
       </c>
@@ -39038,7 +39050,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
@@ -39079,7 +39091,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
@@ -39120,7 +39132,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>601</v>
       </c>
@@ -39161,7 +39173,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>602</v>
       </c>
@@ -39202,7 +39214,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>603</v>
       </c>
@@ -39243,7 +39255,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>604</v>
       </c>
@@ -39284,7 +39296,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>605</v>
       </c>
@@ -39325,7 +39337,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>606</v>
       </c>
@@ -39366,7 +39378,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>607</v>
       </c>
@@ -39407,7 +39419,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>608</v>
       </c>
@@ -39448,7 +39460,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>609</v>
       </c>
@@ -39489,7 +39501,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>610</v>
       </c>
@@ -39530,7 +39542,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>611</v>
       </c>
@@ -39571,7 +39583,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>612</v>
       </c>
@@ -39612,7 +39624,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>613</v>
       </c>
@@ -39653,7 +39665,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>614</v>
       </c>
@@ -39694,7 +39706,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>615</v>
       </c>
@@ -39735,7 +39747,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>616</v>
       </c>
@@ -39776,7 +39788,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>617</v>
       </c>
@@ -39817,7 +39829,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>618</v>
       </c>
@@ -39858,7 +39870,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>619</v>
       </c>
@@ -39899,7 +39911,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>620</v>
       </c>
@@ -39940,7 +39952,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>621</v>
       </c>
@@ -39981,7 +39993,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>622</v>
       </c>
@@ -40022,7 +40034,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>623</v>
       </c>
@@ -40063,7 +40075,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>624</v>
       </c>
@@ -40104,7 +40116,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>625</v>
       </c>
@@ -40145,7 +40157,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>626</v>
       </c>
@@ -40186,7 +40198,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>627</v>
       </c>
@@ -40227,7 +40239,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>628</v>
       </c>
@@ -40268,7 +40280,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>629</v>
       </c>
@@ -40309,7 +40321,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>630</v>
       </c>
@@ -40350,7 +40362,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>631</v>
       </c>
@@ -40391,7 +40403,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>632</v>
       </c>
@@ -40432,7 +40444,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>633</v>
       </c>
@@ -40473,7 +40485,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>634</v>
       </c>
@@ -40514,7 +40526,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>635</v>
       </c>
@@ -40555,7 +40567,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>636</v>
       </c>
@@ -40596,7 +40608,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>637</v>
       </c>
@@ -40637,7 +40649,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>638</v>
       </c>
@@ -40678,7 +40690,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>639</v>
       </c>
@@ -40719,7 +40731,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>640</v>
       </c>
@@ -40760,7 +40772,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>641</v>
       </c>
@@ -40801,7 +40813,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>642</v>
       </c>
@@ -40842,7 +40854,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>643</v>
       </c>
@@ -40883,7 +40895,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>644</v>
       </c>
@@ -40924,7 +40936,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>645</v>
       </c>
@@ -40965,7 +40977,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>646</v>
       </c>
@@ -41006,7 +41018,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>647</v>
       </c>
@@ -41047,7 +41059,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>648</v>
       </c>
@@ -41088,7 +41100,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>649</v>
       </c>
@@ -41129,7 +41141,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>650</v>
       </c>
@@ -41170,7 +41182,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>651</v>
       </c>
@@ -41211,7 +41223,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>652</v>
       </c>
@@ -41252,7 +41264,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>653</v>
       </c>
@@ -41293,7 +41305,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>654</v>
       </c>
@@ -41334,7 +41346,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>655</v>
       </c>
@@ -41375,7 +41387,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>656</v>
       </c>
@@ -41416,7 +41428,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>657</v>
       </c>
@@ -41457,7 +41469,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>658</v>
       </c>
@@ -41498,7 +41510,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>659</v>
       </c>
@@ -41539,7 +41551,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>660</v>
       </c>
@@ -41580,7 +41592,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>661</v>
       </c>
@@ -41621,7 +41633,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>662</v>
       </c>
@@ -41662,7 +41674,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>663</v>
       </c>
@@ -41703,7 +41715,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>664</v>
       </c>
@@ -41744,7 +41756,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>665</v>
       </c>
@@ -41785,7 +41797,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>666</v>
       </c>
@@ -41826,7 +41838,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>667</v>
       </c>
@@ -41867,7 +41879,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>668</v>
       </c>
@@ -41908,7 +41920,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>669</v>
       </c>
@@ -41949,7 +41961,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>670</v>
       </c>
@@ -41990,7 +42002,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>671</v>
       </c>
@@ -42031,7 +42043,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>672</v>
       </c>
@@ -42072,7 +42084,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>673</v>
       </c>
@@ -42113,7 +42125,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>674</v>
       </c>
@@ -42154,7 +42166,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>675</v>
       </c>
@@ -42195,7 +42207,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>676</v>
       </c>
@@ -42236,7 +42248,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>677</v>
       </c>
@@ -42277,7 +42289,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>678</v>
       </c>
@@ -42318,7 +42330,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>679</v>
       </c>
@@ -42359,7 +42371,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>680</v>
       </c>
@@ -42400,7 +42412,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>681</v>
       </c>
@@ -42441,7 +42453,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>682</v>
       </c>
@@ -42482,7 +42494,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>683</v>
       </c>
@@ -42523,7 +42535,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>684</v>
       </c>
@@ -42564,7 +42576,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>685</v>
       </c>
@@ -42605,7 +42617,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>686</v>
       </c>
@@ -42646,7 +42658,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>687</v>
       </c>
@@ -42687,7 +42699,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>688</v>
       </c>
@@ -42728,7 +42740,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>689</v>
       </c>
@@ -42769,7 +42781,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>690</v>
       </c>
@@ -42810,7 +42822,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>691</v>
       </c>
@@ -42851,7 +42863,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>692</v>
       </c>
@@ -42892,7 +42904,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>693</v>
       </c>
@@ -42933,7 +42945,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>694</v>
       </c>
@@ -42974,7 +42986,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>695</v>
       </c>
@@ -43015,7 +43027,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>696</v>
       </c>
@@ -43056,7 +43068,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>697</v>
       </c>
@@ -43097,7 +43109,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>698</v>
       </c>
@@ -43138,7 +43150,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>699</v>
       </c>
@@ -43179,7 +43191,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>700</v>
       </c>
@@ -43220,7 +43232,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>701</v>
       </c>
@@ -43261,7 +43273,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>702</v>
       </c>
@@ -43302,7 +43314,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>703</v>
       </c>
@@ -43343,7 +43355,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>704</v>
       </c>
@@ -43384,7 +43396,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>705</v>
       </c>
@@ -43425,7 +43437,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>706</v>
       </c>
@@ -43466,7 +43478,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>707</v>
       </c>
@@ -43507,7 +43519,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>708</v>
       </c>
@@ -43548,7 +43560,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>709</v>
       </c>
@@ -43589,7 +43601,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>710</v>
       </c>
@@ -43630,7 +43642,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>711</v>
       </c>
@@ -43671,7 +43683,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>712</v>
       </c>
@@ -43712,7 +43724,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>713</v>
       </c>
@@ -43753,7 +43765,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>714</v>
       </c>
@@ -43794,7 +43806,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>715</v>
       </c>
@@ -43835,7 +43847,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>716</v>
       </c>
@@ -43876,7 +43888,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>717</v>
       </c>
@@ -43917,7 +43929,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>718</v>
       </c>
@@ -43958,7 +43970,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>719</v>
       </c>
@@ -43999,7 +44011,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>720</v>
       </c>
@@ -44040,7 +44052,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>721</v>
       </c>
@@ -44081,7 +44093,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>722</v>
       </c>
@@ -44122,7 +44134,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="725" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>723</v>
       </c>
@@ -44163,7 +44175,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>724</v>
       </c>
@@ -44204,7 +44216,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>725</v>
       </c>
@@ -44245,7 +44257,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>726</v>
       </c>
@@ -44286,7 +44298,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>727</v>
       </c>
@@ -44327,7 +44339,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>728</v>
       </c>
@@ -44368,7 +44380,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>729</v>
       </c>
@@ -44409,7 +44421,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>730</v>
       </c>
@@ -44450,7 +44462,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>731</v>
       </c>
@@ -44491,7 +44503,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>732</v>
       </c>
@@ -44532,7 +44544,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>733</v>
       </c>
@@ -44573,7 +44585,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>734</v>
       </c>
@@ -44614,7 +44626,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>735</v>
       </c>
@@ -44655,7 +44667,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>736</v>
       </c>
@@ -44696,7 +44708,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>737</v>
       </c>
@@ -44737,7 +44749,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>738</v>
       </c>
@@ -44778,7 +44790,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>739</v>
       </c>
@@ -44819,7 +44831,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>740</v>
       </c>
@@ -44860,7 +44872,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>741</v>
       </c>
@@ -44901,7 +44913,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>742</v>
       </c>
@@ -44942,7 +44954,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>743</v>
       </c>
@@ -44983,7 +44995,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>744</v>
       </c>
@@ -45024,7 +45036,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>745</v>
       </c>
@@ -45065,7 +45077,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>746</v>
       </c>
@@ -45106,7 +45118,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>747</v>
       </c>
@@ -45147,7 +45159,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>748</v>
       </c>
@@ -45188,7 +45200,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>749</v>
       </c>
@@ -45229,7 +45241,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>750</v>
       </c>
@@ -45270,7 +45282,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>751</v>
       </c>
@@ -45311,7 +45323,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>752</v>
       </c>
@@ -45352,7 +45364,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>753</v>
       </c>
@@ -45393,7 +45405,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>754</v>
       </c>
@@ -45434,7 +45446,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>755</v>
       </c>
@@ -45475,7 +45487,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>756</v>
       </c>
@@ -45516,7 +45528,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>757</v>
       </c>
@@ -45557,7 +45569,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>758</v>
       </c>
@@ -45598,7 +45610,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>759</v>
       </c>
@@ -45639,7 +45651,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>760</v>
       </c>
@@ -45680,7 +45692,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>761</v>
       </c>
@@ -45721,7 +45733,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>762</v>
       </c>
@@ -45762,7 +45774,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>763</v>
       </c>
@@ -45803,7 +45815,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>764</v>
       </c>
@@ -45844,7 +45856,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>765</v>
       </c>
@@ -45885,7 +45897,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>766</v>
       </c>
@@ -45926,7 +45938,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>767</v>
       </c>
@@ -45967,7 +45979,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>768</v>
       </c>
@@ -46008,7 +46020,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>769</v>
       </c>
@@ -46049,7 +46061,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>770</v>
       </c>
@@ -46090,7 +46102,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>771</v>
       </c>
@@ -46131,7 +46143,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>772</v>
       </c>
@@ -46172,7 +46184,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>773</v>
       </c>
@@ -46213,7 +46225,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>774</v>
       </c>
@@ -46254,7 +46266,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>775</v>
       </c>
@@ -46295,7 +46307,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>776</v>
       </c>
@@ -46336,7 +46348,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>777</v>
       </c>
@@ -46377,7 +46389,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>778</v>
       </c>
@@ -46418,7 +46430,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>779</v>
       </c>
@@ -46459,7 +46471,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>780</v>
       </c>
@@ -46500,7 +46512,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>781</v>
       </c>
@@ -46541,7 +46553,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>782</v>
       </c>
@@ -46582,7 +46594,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>783</v>
       </c>
@@ -46623,7 +46635,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>784</v>
       </c>
@@ -46664,7 +46676,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>785</v>
       </c>
@@ -46705,7 +46717,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>786</v>
       </c>
@@ -46746,7 +46758,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>787</v>
       </c>
@@ -46787,7 +46799,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>788</v>
       </c>
@@ -46828,7 +46840,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>789</v>
       </c>
@@ -46869,7 +46881,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>790</v>
       </c>
@@ -46910,7 +46922,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>791</v>
       </c>
@@ -46951,7 +46963,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>792</v>
       </c>
@@ -46992,7 +47004,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>793</v>
       </c>
@@ -47033,7 +47045,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>794</v>
       </c>
@@ -47074,7 +47086,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>795</v>
       </c>
@@ -47115,7 +47127,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>796</v>
       </c>
@@ -47156,7 +47168,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>797</v>
       </c>
@@ -47197,7 +47209,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>798</v>
       </c>
@@ -47238,7 +47250,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>799</v>
       </c>
@@ -47279,7 +47291,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>800</v>
       </c>
@@ -47320,7 +47332,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>801</v>
       </c>
@@ -47361,7 +47373,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>802</v>
       </c>
@@ -47402,7 +47414,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>803</v>
       </c>
@@ -47443,7 +47455,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>804</v>
       </c>
@@ -47484,7 +47496,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>805</v>
       </c>
@@ -47525,7 +47537,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>806</v>
       </c>
@@ -47566,7 +47578,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>807</v>
       </c>
@@ -47607,7 +47619,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>808</v>
       </c>
@@ -47648,7 +47660,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>809</v>
       </c>
@@ -47689,7 +47701,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>810</v>
       </c>
@@ -47730,7 +47742,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>811</v>
       </c>
@@ -47771,7 +47783,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>812</v>
       </c>
@@ -47812,7 +47824,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>813</v>
       </c>
@@ -47853,7 +47865,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>814</v>
       </c>
@@ -47894,7 +47906,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>815</v>
       </c>
@@ -47935,7 +47947,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>816</v>
       </c>
@@ -47976,7 +47988,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>817</v>
       </c>
@@ -48017,7 +48029,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>818</v>
       </c>
@@ -48058,7 +48070,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>819</v>
       </c>
@@ -48099,7 +48111,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>820</v>
       </c>
@@ -48140,7 +48152,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="823" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>821</v>
       </c>
@@ -48181,7 +48193,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="824" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>822</v>
       </c>
@@ -48222,7 +48234,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="825" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>823</v>
       </c>
@@ -48263,7 +48275,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="826" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>824</v>
       </c>
@@ -48304,7 +48316,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="827" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>825</v>
       </c>
@@ -48345,7 +48357,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="828" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>826</v>
       </c>
@@ -48386,7 +48398,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="829" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>827</v>
       </c>
@@ -48427,7 +48439,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="830" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>828</v>
       </c>
@@ -48468,7 +48480,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="831" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>829</v>
       </c>
@@ -48509,7 +48521,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="832" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>830</v>
       </c>
@@ -48550,7 +48562,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="833" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>831</v>
       </c>
@@ -48591,7 +48603,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="834" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>832</v>
       </c>
@@ -48632,7 +48644,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="835" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>833</v>
       </c>
@@ -48673,7 +48685,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="836" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>834</v>
       </c>
@@ -48714,7 +48726,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="837" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>835</v>
       </c>
@@ -48755,7 +48767,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="838" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>836</v>
       </c>
@@ -48796,7 +48808,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="839" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>837</v>
       </c>
@@ -48837,7 +48849,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="840" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>838</v>
       </c>
@@ -48878,7 +48890,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="841" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>839</v>
       </c>
@@ -48919,7 +48931,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="842" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>840</v>
       </c>
@@ -48960,7 +48972,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="843" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>841</v>
       </c>
@@ -49001,7 +49013,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="844" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>842</v>
       </c>
@@ -49042,7 +49054,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="845" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>843</v>
       </c>
@@ -49083,7 +49095,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="846" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>844</v>
       </c>
@@ -49124,7 +49136,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="847" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>845</v>
       </c>
@@ -49165,7 +49177,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="848" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>846</v>
       </c>
@@ -49206,7 +49218,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="849" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>847</v>
       </c>
@@ -49247,7 +49259,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="850" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>848</v>
       </c>
@@ -49288,7 +49300,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="851" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>849</v>
       </c>
@@ -49329,7 +49341,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="852" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>850</v>
       </c>
@@ -49370,7 +49382,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="853" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>851</v>
       </c>
@@ -49411,7 +49423,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="854" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>852</v>
       </c>
@@ -49452,7 +49464,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="855" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>853</v>
       </c>
@@ -49493,7 +49505,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="856" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>854</v>
       </c>
@@ -49534,7 +49546,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="857" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>855</v>
       </c>
@@ -49575,7 +49587,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="858" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>856</v>
       </c>
@@ -49616,7 +49628,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="859" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>857</v>
       </c>
@@ -49657,7 +49669,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="860" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>858</v>
       </c>
@@ -49698,7 +49710,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="861" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>859</v>
       </c>
@@ -49739,7 +49751,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="862" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>860</v>
       </c>
@@ -49780,7 +49792,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="863" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>861</v>
       </c>
@@ -49821,7 +49833,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="864" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>862</v>
       </c>
@@ -49862,7 +49874,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="865" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>863</v>
       </c>
@@ -49903,7 +49915,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="866" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>864</v>
       </c>
@@ -49944,7 +49956,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="867" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>865</v>
       </c>
@@ -49985,7 +49997,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="868" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>866</v>
       </c>
@@ -50026,7 +50038,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="869" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>867</v>
       </c>
@@ -50067,7 +50079,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="870" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>868</v>
       </c>
@@ -50108,7 +50120,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="871" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>869</v>
       </c>
@@ -50149,7 +50161,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="872" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>870</v>
       </c>
@@ -50190,7 +50202,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="873" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>871</v>
       </c>
@@ -50231,7 +50243,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="874" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>872</v>
       </c>
@@ -50272,7 +50284,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="875" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>873</v>
       </c>
@@ -50313,7 +50325,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="876" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>874</v>
       </c>
@@ -50354,7 +50366,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="877" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>875</v>
       </c>
@@ -50395,7 +50407,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="878" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>876</v>
       </c>
@@ -50436,7 +50448,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="879" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>877</v>
       </c>
@@ -50477,7 +50489,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>878</v>
       </c>
@@ -50518,7 +50530,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="881" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>879</v>
       </c>
@@ -50559,7 +50571,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="882" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>880</v>
       </c>
@@ -50600,7 +50612,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="883" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>881</v>
       </c>
@@ -50641,7 +50653,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="884" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>882</v>
       </c>
@@ -50682,7 +50694,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="885" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>883</v>
       </c>
@@ -50723,7 +50735,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="886" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>884</v>
       </c>
@@ -50764,7 +50776,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="887" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>885</v>
       </c>
@@ -50805,7 +50817,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="888" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>886</v>
       </c>
@@ -50846,7 +50858,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="889" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>887</v>
       </c>
@@ -50887,7 +50899,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="890" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>888</v>
       </c>
@@ -50928,7 +50940,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="891" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>889</v>
       </c>
@@ -50969,7 +50981,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="892" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>890</v>
       </c>
@@ -51010,7 +51022,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="893" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>891</v>
       </c>
@@ -51051,7 +51063,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="894" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>892</v>
       </c>
@@ -51092,7 +51104,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="895" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>893</v>
       </c>
@@ -51133,7 +51145,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="896" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>894</v>
       </c>
@@ -51174,7 +51186,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>895</v>
       </c>
@@ -51215,7 +51227,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>896</v>
       </c>
@@ -51256,7 +51268,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>897</v>
       </c>
@@ -51297,7 +51309,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>898</v>
       </c>
@@ -51338,7 +51350,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>899</v>
       </c>
@@ -51379,7 +51391,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>900</v>
       </c>
@@ -51420,7 +51432,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>901</v>
       </c>
@@ -51461,7 +51473,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>902</v>
       </c>
@@ -51502,7 +51514,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>903</v>
       </c>
@@ -51543,7 +51555,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="906" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>904</v>
       </c>
@@ -51584,7 +51596,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="907" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>905</v>
       </c>
@@ -51625,7 +51637,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>906</v>
       </c>
@@ -51666,7 +51678,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>907</v>
       </c>
@@ -51707,7 +51719,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>908</v>
       </c>
@@ -51748,7 +51760,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>909</v>
       </c>
@@ -51789,7 +51801,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="912" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>910</v>
       </c>
@@ -51830,7 +51842,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="913" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>911</v>
       </c>
@@ -51871,7 +51883,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="914" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>912</v>
       </c>
@@ -51912,7 +51924,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="915" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>913</v>
       </c>
@@ -51953,7 +51965,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="916" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>914</v>
       </c>
@@ -51994,7 +52006,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="917" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>915</v>
       </c>
@@ -52035,7 +52047,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="918" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>916</v>
       </c>
@@ -52076,7 +52088,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="919" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>917</v>
       </c>
@@ -52117,7 +52129,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="920" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>918</v>
       </c>
@@ -52158,7 +52170,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="921" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>919</v>
       </c>
@@ -52199,7 +52211,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="922" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>920</v>
       </c>
@@ -52240,7 +52252,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="923" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>921</v>
       </c>
@@ -52281,7 +52293,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="924" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>922</v>
       </c>
@@ -52322,7 +52334,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="925" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>923</v>
       </c>
@@ -52363,7 +52375,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="926" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>924</v>
       </c>
@@ -52404,7 +52416,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="927" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>925</v>
       </c>
@@ -52445,7 +52457,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="928" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>926</v>
       </c>
@@ -52486,7 +52498,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="929" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>927</v>
       </c>
@@ -52527,7 +52539,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="930" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>928</v>
       </c>
@@ -52568,7 +52580,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="931" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>929</v>
       </c>
@@ -52609,7 +52621,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="932" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>930</v>
       </c>
@@ -52650,7 +52662,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="933" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>931</v>
       </c>
@@ -52691,7 +52703,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="934" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>932</v>
       </c>
@@ -52732,7 +52744,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="935" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>933</v>
       </c>
@@ -52773,7 +52785,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="936" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>934</v>
       </c>
@@ -52814,7 +52826,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="937" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>935</v>
       </c>
@@ -52855,7 +52867,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="938" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>936</v>
       </c>
@@ -52896,7 +52908,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="939" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>937</v>
       </c>
@@ -52937,7 +52949,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="940" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>938</v>
       </c>
@@ -52978,7 +52990,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="941" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>939</v>
       </c>
@@ -53019,7 +53031,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="942" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>940</v>
       </c>
@@ -53060,7 +53072,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="943" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>941</v>
       </c>
@@ -53101,7 +53113,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="944" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>942</v>
       </c>
@@ -53142,7 +53154,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="945" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>943</v>
       </c>
@@ -53183,7 +53195,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="946" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>944</v>
       </c>
@@ -53224,7 +53236,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="947" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>945</v>
       </c>
@@ -53265,7 +53277,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="948" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>946</v>
       </c>
@@ -53306,7 +53318,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="949" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>947</v>
       </c>
@@ -53347,7 +53359,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="950" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>948</v>
       </c>
@@ -53388,7 +53400,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="951" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>949</v>
       </c>
@@ -53429,7 +53441,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="952" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>950</v>
       </c>
@@ -53470,7 +53482,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="953" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>951</v>
       </c>
@@ -53511,7 +53523,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="954" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>952</v>
       </c>
@@ -53552,7 +53564,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="955" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>953</v>
       </c>
@@ -53593,7 +53605,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="956" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>954</v>
       </c>
@@ -53634,7 +53646,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="957" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>955</v>
       </c>
@@ -53675,7 +53687,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="958" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>956</v>
       </c>
@@ -53716,7 +53728,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="959" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>957</v>
       </c>
@@ -53757,7 +53769,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="960" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>958</v>
       </c>
@@ -53798,7 +53810,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="961" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>959</v>
       </c>
@@ -53839,7 +53851,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="962" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>960</v>
       </c>
@@ -53880,7 +53892,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="963" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>961</v>
       </c>
@@ -53921,7 +53933,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="964" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>962</v>
       </c>
@@ -53962,7 +53974,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="965" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>963</v>
       </c>
@@ -54003,7 +54015,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="966" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>964</v>
       </c>
@@ -54044,7 +54056,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="967" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>965</v>
       </c>
@@ -54085,7 +54097,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="968" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>966</v>
       </c>
@@ -54126,7 +54138,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="969" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>967</v>
       </c>
@@ -54167,7 +54179,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="970" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>968</v>
       </c>
@@ -54208,7 +54220,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="971" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>969</v>
       </c>
@@ -54249,7 +54261,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="972" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>970</v>
       </c>
@@ -54290,7 +54302,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="973" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>971</v>
       </c>
@@ -54331,7 +54343,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="974" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>972</v>
       </c>
@@ -54372,7 +54384,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="975" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>973</v>
       </c>
@@ -54413,7 +54425,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="976" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>974</v>
       </c>
@@ -54454,7 +54466,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="977" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>975</v>
       </c>
@@ -54495,7 +54507,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="978" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>976</v>
       </c>
@@ -54536,7 +54548,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="979" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>977</v>
       </c>
@@ -54577,7 +54589,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="980" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>978</v>
       </c>
@@ -54618,7 +54630,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="981" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>979</v>
       </c>
@@ -54659,7 +54671,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="982" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>980</v>
       </c>
@@ -54700,7 +54712,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="983" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>981</v>
       </c>
@@ -54741,7 +54753,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="984" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>982</v>
       </c>
@@ -54782,7 +54794,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="985" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>983</v>
       </c>
@@ -54823,7 +54835,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="986" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>984</v>
       </c>
@@ -54864,7 +54876,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="987" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>985</v>
       </c>
@@ -54905,7 +54917,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="988" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>986</v>
       </c>
@@ -54946,7 +54958,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="989" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>987</v>
       </c>
@@ -54987,7 +54999,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="990" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>988</v>
       </c>
@@ -55028,7 +55040,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="991" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>989</v>
       </c>
@@ -55069,7 +55081,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="992" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>990</v>
       </c>
@@ -55110,7 +55122,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="993" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>991</v>
       </c>
@@ -55151,7 +55163,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="994" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>992</v>
       </c>
@@ -55192,7 +55204,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="995" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>993</v>
       </c>
@@ -55233,7 +55245,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="996" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>994</v>
       </c>
@@ -55274,7 +55286,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="997" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>995</v>
       </c>
@@ -55315,7 +55327,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="998" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>996</v>
       </c>
@@ -55356,7 +55368,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="999" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>997</v>
       </c>
@@ -55397,7 +55409,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -55438,7 +55450,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -55479,7 +55491,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1002">
         <v>1000</v>
       </c>
@@ -55520,7 +55532,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1003">
         <v>1001</v>
       </c>
@@ -55561,7 +55573,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1004">
         <v>1002</v>
       </c>
@@ -55602,7 +55614,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1005">
         <v>1003</v>
       </c>
@@ -55643,7 +55655,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1006">
         <v>1004</v>
       </c>
@@ -55684,7 +55696,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1007">
         <v>1005</v>
       </c>
@@ -55725,7 +55737,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1008">
         <v>1006</v>
       </c>
@@ -55766,7 +55778,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1009">
         <v>1007</v>
       </c>
@@ -55807,7 +55819,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1010">
         <v>1008</v>
       </c>
@@ -55848,7 +55860,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1011">
         <v>1009</v>
       </c>
@@ -55889,7 +55901,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1012">
         <v>1010</v>
       </c>
@@ -55930,7 +55942,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1013">
         <v>1011</v>
       </c>
@@ -55971,7 +55983,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1014">
         <v>1012</v>
       </c>
@@ -56012,7 +56024,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1015">
         <v>1013</v>
       </c>
@@ -56053,7 +56065,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1016">
         <v>1014</v>
       </c>
@@ -56094,7 +56106,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1017">
         <v>1015</v>
       </c>
@@ -56135,7 +56147,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1018">
         <v>1016</v>
       </c>
@@ -56176,7 +56188,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1019">
         <v>1017</v>
       </c>
@@ -56217,7 +56229,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1020">
         <v>1018</v>
       </c>
@@ -56258,7 +56270,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1021">
         <v>1019</v>
       </c>
@@ -56299,7 +56311,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1022">
         <v>1020</v>
       </c>
@@ -56340,7 +56352,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1023">
         <v>1021</v>
       </c>
@@ -56381,7 +56393,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1024">
         <v>1022</v>
       </c>
@@ -56422,7 +56434,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1025">
         <v>1023</v>
       </c>
@@ -56463,7 +56475,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1026">
         <v>1024</v>
       </c>
@@ -56504,7 +56516,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1027">
         <v>1025</v>
       </c>
@@ -56545,7 +56557,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1028">
         <v>1026</v>
       </c>
@@ -56586,7 +56598,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1029">
         <v>1027</v>
       </c>
@@ -56627,7 +56639,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1030">
         <v>1028</v>
       </c>
@@ -56668,7 +56680,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1031">
         <v>1029</v>
       </c>
@@ -56709,7 +56721,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1032">
         <v>1030</v>
       </c>
@@ -56750,7 +56762,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1033">
         <v>1031</v>
       </c>
@@ -56791,7 +56803,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1034">
         <v>1032</v>
       </c>
@@ -56832,7 +56844,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1035">
         <v>1033</v>
       </c>
@@ -56873,7 +56885,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1036">
         <v>1034</v>
       </c>
@@ -56914,7 +56926,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1037">
         <v>1035</v>
       </c>
@@ -56955,7 +56967,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1038">
         <v>1036</v>
       </c>
@@ -56996,7 +57008,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1039">
         <v>1037</v>
       </c>
@@ -57037,7 +57049,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1040">
         <v>1038</v>
       </c>
@@ -57078,7 +57090,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1041">
         <v>1039</v>
       </c>
@@ -57119,7 +57131,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1042">
         <v>1040</v>
       </c>
@@ -57160,7 +57172,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1043">
         <v>1041</v>
       </c>
@@ -57201,7 +57213,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1044">
         <v>1042</v>
       </c>
@@ -57242,7 +57254,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1045">
         <v>1043</v>
       </c>
@@ -57283,7 +57295,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1046">
         <v>1044</v>
       </c>
@@ -57324,7 +57336,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1047">
         <v>1045</v>
       </c>
@@ -57365,7 +57377,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1048">
         <v>1046</v>
       </c>
@@ -57406,7 +57418,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1049">
         <v>1047</v>
       </c>
@@ -57447,7 +57459,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1050">
         <v>1048</v>
       </c>
@@ -57488,7 +57500,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1051">
         <v>1049</v>
       </c>
@@ -57529,7 +57541,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1052">
         <v>1050</v>
       </c>
@@ -57570,7 +57582,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1053">
         <v>1051</v>
       </c>
@@ -57611,7 +57623,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1054">
         <v>1052</v>
       </c>
@@ -57652,7 +57664,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1055">
         <v>1053</v>
       </c>
@@ -57693,7 +57705,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1056">
         <v>1054</v>
       </c>
@@ -57734,7 +57746,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1057">
         <v>1055</v>
       </c>
@@ -57775,7 +57787,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1058">
         <v>1056</v>
       </c>
@@ -57816,7 +57828,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1059">
         <v>1057</v>
       </c>
@@ -57857,7 +57869,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1060">
         <v>1058</v>
       </c>
@@ -57898,7 +57910,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1061">
         <v>1059</v>
       </c>
@@ -57939,7 +57951,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1062">
         <v>1060</v>
       </c>
@@ -57980,7 +57992,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1063">
         <v>1061</v>
       </c>
@@ -58021,7 +58033,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1064">
         <v>1062</v>
       </c>
@@ -58062,7 +58074,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1065">
         <v>1063</v>
       </c>
@@ -58103,7 +58115,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1066">
         <v>1064</v>
       </c>
@@ -58144,7 +58156,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1067">
         <v>1065</v>
       </c>
@@ -58185,7 +58197,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1068">
         <v>1066</v>
       </c>
@@ -58226,7 +58238,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1069">
         <v>1067</v>
       </c>
@@ -58267,7 +58279,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1070">
         <v>1068</v>
       </c>
@@ -58308,7 +58320,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1071">
         <v>1069</v>
       </c>
@@ -58349,7 +58361,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1072">
         <v>1070</v>
       </c>
@@ -58390,7 +58402,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1073">
         <v>1071</v>
       </c>
@@ -58431,7 +58443,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1074">
         <v>1072</v>
       </c>
@@ -58472,7 +58484,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1075">
         <v>1073</v>
       </c>
@@ -58513,7 +58525,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1076">
         <v>1074</v>
       </c>
@@ -58554,7 +58566,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1077">
         <v>1075</v>
       </c>
@@ -58595,7 +58607,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1078">
         <v>1076</v>
       </c>
@@ -58636,7 +58648,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1079">
         <v>1077</v>
       </c>
@@ -58677,7 +58689,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1080">
         <v>1078</v>
       </c>
@@ -58718,7 +58730,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1081">
         <v>1079</v>
       </c>
@@ -58759,7 +58771,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1082">
         <v>1080</v>
       </c>
@@ -58800,7 +58812,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1083">
         <v>1081</v>
       </c>
@@ -58841,7 +58853,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1084">
         <v>1082</v>
       </c>
@@ -58882,7 +58894,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1085" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1085">
         <v>1083</v>
       </c>
@@ -58923,7 +58935,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1086" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1086">
         <v>1084</v>
       </c>
@@ -58964,7 +58976,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1087" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1087">
         <v>1085</v>
       </c>
@@ -59005,7 +59017,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1088" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1088">
         <v>1086</v>
       </c>
@@ -59046,7 +59058,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1089" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1089">
         <v>1087</v>
       </c>
@@ -59087,7 +59099,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1090" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1090">
         <v>1088</v>
       </c>
@@ -59128,7 +59140,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1091" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1091">
         <v>1089</v>
       </c>
@@ -59169,7 +59181,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1092" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1092">
         <v>1090</v>
       </c>
@@ -59210,7 +59222,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1093" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1093">
         <v>1091</v>
       </c>
@@ -59251,7 +59263,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1094" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1094">
         <v>1092</v>
       </c>
@@ -59292,7 +59304,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1095" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1095">
         <v>1093</v>
       </c>
@@ -59333,7 +59345,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1096" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1096">
         <v>1094</v>
       </c>
@@ -59374,7 +59386,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1097" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1097">
         <v>1095</v>
       </c>
@@ -59415,7 +59427,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1098" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1098">
         <v>1096</v>
       </c>
@@ -59456,7 +59468,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1099" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1099">
         <v>1097</v>
       </c>
@@ -59497,7 +59509,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1100">
         <v>1098</v>
       </c>
@@ -59538,7 +59550,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1101">
         <v>1099</v>
       </c>
@@ -59579,7 +59591,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1102">
         <v>1100</v>
       </c>
@@ -59620,7 +59632,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1103">
         <v>1101</v>
       </c>
@@ -59661,7 +59673,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1104">
         <v>1102</v>
       </c>
@@ -59702,7 +59714,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1105">
         <v>1103</v>
       </c>
@@ -59743,7 +59755,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1106">
         <v>1104</v>
       </c>
@@ -59784,7 +59796,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1107">
         <v>1105</v>
       </c>
@@ -59825,7 +59837,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1108">
         <v>1106</v>
       </c>
@@ -59866,7 +59878,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1109">
         <v>1107</v>
       </c>
@@ -59907,7 +59919,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1110">
         <v>1108</v>
       </c>
@@ -59948,7 +59960,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1111">
         <v>1109</v>
       </c>
@@ -59989,7 +60001,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1112">
         <v>1110</v>
       </c>
@@ -60030,7 +60042,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1113">
         <v>1111</v>
       </c>
@@ -60071,7 +60083,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1114">
         <v>1112</v>
       </c>
@@ -60112,7 +60124,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1115">
         <v>1113</v>
       </c>
@@ -60153,7 +60165,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1116">
         <v>1114</v>
       </c>
@@ -60194,7 +60206,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1117">
         <v>1115</v>
       </c>
@@ -60235,7 +60247,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1118">
         <v>1116</v>
       </c>
@@ -60276,7 +60288,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1119">
         <v>1117</v>
       </c>
@@ -60317,7 +60329,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1120">
         <v>1118</v>
       </c>
@@ -60358,7 +60370,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1121">
         <v>1119</v>
       </c>
@@ -60399,7 +60411,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1122">
         <v>1120</v>
       </c>
@@ -60440,7 +60452,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1123">
         <v>1121</v>
       </c>
@@ -60481,7 +60493,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1124">
         <v>1122</v>
       </c>
@@ -60522,7 +60534,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1125">
         <v>1123</v>
       </c>
@@ -60563,7 +60575,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1126">
         <v>1124</v>
       </c>
@@ -60604,7 +60616,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1127">
         <v>1125</v>
       </c>
@@ -60645,7 +60657,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1128">
         <v>1126</v>
       </c>
@@ -60686,7 +60698,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1129">
         <v>1127</v>
       </c>
@@ -60727,7 +60739,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1130">
         <v>1128</v>
       </c>
@@ -60768,7 +60780,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1131">
         <v>1129</v>
       </c>
@@ -60809,7 +60821,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1132">
         <v>1130</v>
       </c>
@@ -60850,7 +60862,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1133">
         <v>1131</v>
       </c>
@@ -60891,7 +60903,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1134">
         <v>1132</v>
       </c>
@@ -60932,7 +60944,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1135">
         <v>1133</v>
       </c>
@@ -60973,7 +60985,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1136">
         <v>1134</v>
       </c>
@@ -61014,7 +61026,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1137">
         <v>1135</v>
       </c>
@@ -61055,7 +61067,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1138">
         <v>1136</v>
       </c>
@@ -61096,7 +61108,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1139">
         <v>1137</v>
       </c>
@@ -61137,7 +61149,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1140">
         <v>1138</v>
       </c>
@@ -61178,7 +61190,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1141">
         <v>1139</v>
       </c>
@@ -61219,7 +61231,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1142">
         <v>1140</v>
       </c>
@@ -61260,7 +61272,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1143">
         <v>1141</v>
       </c>
@@ -61301,7 +61313,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1144">
         <v>1142</v>
       </c>
@@ -61342,7 +61354,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1145">
         <v>1143</v>
       </c>
@@ -61383,7 +61395,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1146">
         <v>1144</v>
       </c>
@@ -61424,7 +61436,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1147">
         <v>1145</v>
       </c>
@@ -61465,7 +61477,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1148">
         <v>1146</v>
       </c>
@@ -61506,7 +61518,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1149">
         <v>1147</v>
       </c>
@@ -61547,7 +61559,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1150">
         <v>1148</v>
       </c>
@@ -61588,7 +61600,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1151">
         <v>1149</v>
       </c>
@@ -61629,7 +61641,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1152">
         <v>1150</v>
       </c>
@@ -61670,7 +61682,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1153">
         <v>1151</v>
       </c>
@@ -61711,7 +61723,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1154">
         <v>1152</v>
       </c>
@@ -61752,7 +61764,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1155">
         <v>1153</v>
       </c>
@@ -61793,7 +61805,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1156">
         <v>1154</v>
       </c>
@@ -61834,7 +61846,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1157">
         <v>1155</v>
       </c>
@@ -61875,7 +61887,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1158">
         <v>1156</v>
       </c>
@@ -61916,7 +61928,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1159">
         <v>1157</v>
       </c>
@@ -61957,7 +61969,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1160">
         <v>1158</v>
       </c>
@@ -61998,7 +62010,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1161">
         <v>1159</v>
       </c>
@@ -62039,7 +62051,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1162">
         <v>1160</v>
       </c>
@@ -62080,7 +62092,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1163">
         <v>1161</v>
       </c>
@@ -62121,7 +62133,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1164">
         <v>1162</v>
       </c>
@@ -62162,7 +62174,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1165">
         <v>1163</v>
       </c>
@@ -62203,7 +62215,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1166">
         <v>1164</v>
       </c>
@@ -62244,7 +62256,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1167">
         <v>1165</v>
       </c>
@@ -62285,7 +62297,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1168">
         <v>1166</v>
       </c>
@@ -62326,7 +62338,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1169">
         <v>1167</v>
       </c>
@@ -62367,7 +62379,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1170">
         <v>1168</v>
       </c>
@@ -62408,7 +62420,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1171">
         <v>1169</v>
       </c>
@@ -62449,7 +62461,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1172">
         <v>1170</v>
       </c>
@@ -62490,7 +62502,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1173" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1173">
         <v>1171</v>
       </c>
@@ -62531,7 +62543,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1174">
         <v>1172</v>
       </c>
@@ -62572,7 +62584,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1175">
         <v>1173</v>
       </c>
@@ -62613,7 +62625,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1176">
         <v>1174</v>
       </c>
@@ -62654,7 +62666,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1177">
         <v>1175</v>
       </c>
@@ -62695,7 +62707,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1178">
         <v>1176</v>
       </c>
@@ -62736,7 +62748,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1179">
         <v>1177</v>
       </c>
@@ -62777,7 +62789,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1180">
         <v>1178</v>
       </c>
@@ -62818,7 +62830,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1181">
         <v>1179</v>
       </c>
@@ -62859,7 +62871,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1182">
         <v>1180</v>
       </c>
@@ -62900,7 +62912,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1183">
         <v>1181</v>
       </c>
@@ -62941,7 +62953,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1184">
         <v>1182</v>
       </c>
@@ -62982,7 +62994,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1185">
         <v>1183</v>
       </c>
@@ -63023,7 +63035,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1186">
         <v>1184</v>
       </c>
@@ -63064,7 +63076,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1187">
         <v>1185</v>
       </c>
@@ -63105,7 +63117,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1188">
         <v>1186</v>
       </c>
@@ -63146,7 +63158,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1189">
         <v>1187</v>
       </c>
@@ -63187,7 +63199,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1190">
         <v>1188</v>
       </c>
@@ -63228,7 +63240,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1191">
         <v>1189</v>
       </c>
@@ -63269,7 +63281,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1192">
         <v>1190</v>
       </c>
@@ -63310,7 +63322,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1193">
         <v>1191</v>
       </c>
@@ -63351,7 +63363,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1194">
         <v>1192</v>
       </c>
@@ -63392,7 +63404,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1195">
         <v>1193</v>
       </c>
@@ -63433,7 +63445,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1196">
         <v>1194</v>
       </c>
@@ -63474,7 +63486,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1197">
         <v>1195</v>
       </c>
@@ -63515,7 +63527,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1198">
         <v>1196</v>
       </c>
@@ -63556,7 +63568,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1199">
         <v>1197</v>
       </c>
@@ -63597,7 +63609,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1200">
         <v>1198</v>
       </c>
@@ -63638,7 +63650,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1201">
         <v>1199</v>
       </c>
@@ -63679,7 +63691,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1202">
         <v>1200</v>
       </c>
@@ -63720,7 +63732,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1203">
         <v>1201</v>
       </c>
@@ -63761,7 +63773,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1204">
         <v>1202</v>
       </c>
@@ -63802,7 +63814,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1205">
         <v>1203</v>
       </c>
@@ -63843,7 +63855,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1206">
         <v>1204</v>
       </c>
@@ -63884,7 +63896,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1207">
         <v>1205</v>
       </c>
@@ -63925,7 +63937,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1208">
         <v>1206</v>
       </c>
@@ -63966,7 +63978,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1209">
         <v>1207</v>
       </c>
@@ -64007,7 +64019,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1210">
         <v>1208</v>
       </c>
@@ -64048,7 +64060,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1211">
         <v>1209</v>
       </c>
@@ -64089,7 +64101,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1212">
         <v>1210</v>
       </c>
@@ -64130,7 +64142,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1213">
         <v>1211</v>
       </c>
@@ -64171,7 +64183,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1214">
         <v>1212</v>
       </c>
@@ -64212,7 +64224,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1215">
         <v>1213</v>
       </c>
@@ -64253,7 +64265,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1216">
         <v>1214</v>
       </c>
@@ -64294,7 +64306,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1217">
         <v>1215</v>
       </c>
@@ -64335,7 +64347,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1218">
         <v>1216</v>
       </c>
@@ -64376,7 +64388,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1219">
         <v>1217</v>
       </c>
@@ -64417,7 +64429,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1220">
         <v>1218</v>
       </c>
@@ -64458,7 +64470,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1221">
         <v>1219</v>
       </c>
@@ -64499,7 +64511,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1222">
         <v>1220</v>
       </c>
@@ -64540,7 +64552,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1223">
         <v>1221</v>
       </c>
@@ -64581,7 +64593,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1224">
         <v>1222</v>
       </c>
@@ -64622,7 +64634,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1225">
         <v>1223</v>
       </c>
@@ -64663,7 +64675,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1226">
         <v>1224</v>
       </c>
@@ -64704,7 +64716,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1227">
         <v>1225</v>
       </c>
@@ -64745,7 +64757,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1228">
         <v>1226</v>
       </c>
@@ -64786,7 +64798,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1229">
         <v>1227</v>
       </c>
@@ -64827,7 +64839,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1230">
         <v>1228</v>
       </c>
@@ -64868,7 +64880,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1231">
         <v>1229</v>
       </c>
@@ -64909,7 +64921,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1232">
         <v>1230</v>
       </c>
@@ -64950,7 +64962,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1233">
         <v>1231</v>
       </c>
@@ -64991,7 +65003,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1234">
         <v>1232</v>
       </c>
@@ -65032,7 +65044,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1235">
         <v>1233</v>
       </c>
@@ -65073,7 +65085,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1236">
         <v>1234</v>
       </c>
@@ -65114,7 +65126,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1237">
         <v>1235</v>
       </c>
@@ -65155,7 +65167,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1238">
         <v>1236</v>
       </c>
@@ -65196,7 +65208,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1239">
         <v>1237</v>
       </c>
@@ -65237,7 +65249,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1240">
         <v>1238</v>
       </c>
@@ -65278,7 +65290,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1241">
         <v>1239</v>
       </c>
@@ -65319,7 +65331,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1242">
         <v>1240</v>
       </c>
@@ -65360,7 +65372,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1243">
         <v>1241</v>
       </c>
@@ -65401,7 +65413,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1244">
         <v>1242</v>
       </c>
@@ -65442,7 +65454,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1245">
         <v>1243</v>
       </c>
@@ -65483,7 +65495,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1246">
         <v>1244</v>
       </c>
@@ -65524,7 +65536,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1247">
         <v>1245</v>
       </c>
@@ -65565,7 +65577,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1248" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1248">
         <v>1246</v>
       </c>
@@ -65606,7 +65618,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1249">
         <v>1247</v>
       </c>
@@ -65647,7 +65659,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1250">
         <v>1248</v>
       </c>
@@ -65688,7 +65700,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1251">
         <v>1249</v>
       </c>
@@ -65729,7 +65741,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1252">
         <v>1250</v>
       </c>
@@ -65770,7 +65782,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1253">
         <v>1251</v>
       </c>
@@ -65811,7 +65823,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1254">
         <v>1252</v>
       </c>
@@ -65852,7 +65864,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1255">
         <v>1253</v>
       </c>
@@ -65893,7 +65905,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1256">
         <v>1254</v>
       </c>
@@ -65934,7 +65946,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1257" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1257">
         <v>1255</v>
       </c>
@@ -65975,7 +65987,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1258" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1258">
         <v>1256</v>
       </c>
@@ -66016,7 +66028,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1259" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1259">
         <v>1257</v>
       </c>
@@ -66057,7 +66069,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1260" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1260">
         <v>1258</v>
       </c>
@@ -66098,7 +66110,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1261" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1261">
         <v>1259</v>
       </c>
@@ -66139,7 +66151,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1262" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1262">
         <v>1260</v>
       </c>
@@ -66180,7 +66192,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1263" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1263">
         <v>1261</v>
       </c>
@@ -66221,7 +66233,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1264" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1264">
         <v>1262</v>
       </c>
@@ -66262,7 +66274,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1265" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1265">
         <v>1263</v>
       </c>
@@ -66303,7 +66315,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1266">
         <v>1264</v>
       </c>
@@ -66344,7 +66356,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1267" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1267">
         <v>1265</v>
       </c>
@@ -66385,7 +66397,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1268" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1268">
         <v>1266</v>
       </c>
@@ -66426,7 +66438,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1269" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1269">
         <v>1267</v>
       </c>
@@ -66467,7 +66479,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1270">
         <v>1268</v>
       </c>
@@ -66508,7 +66520,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1271" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1271">
         <v>1269</v>
       </c>
@@ -66549,7 +66561,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1272" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1272">
         <v>1270</v>
       </c>
@@ -66590,7 +66602,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1273">
         <v>1271</v>
       </c>
@@ -66631,7 +66643,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1274">
         <v>1272</v>
       </c>
@@ -66672,7 +66684,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1275">
         <v>1273</v>
       </c>
@@ -66713,7 +66725,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1276">
         <v>1274</v>
       </c>
@@ -66754,7 +66766,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1277">
         <v>1275</v>
       </c>
@@ -66795,7 +66807,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1278">
         <v>1276</v>
       </c>
@@ -66836,7 +66848,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1279">
         <v>1277</v>
       </c>
@@ -66877,7 +66889,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1280">
         <v>1278</v>
       </c>
@@ -66918,7 +66930,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1281">
         <v>1279</v>
       </c>
@@ -66959,7 +66971,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1282">
         <v>1280</v>
       </c>
@@ -67000,7 +67012,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1283">
         <v>1281</v>
       </c>
@@ -67041,7 +67053,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1284">
         <v>1282</v>
       </c>
@@ -67082,7 +67094,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1285">
         <v>1283</v>
       </c>
@@ -67123,7 +67135,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1286">
         <v>1284</v>
       </c>
@@ -67164,7 +67176,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1287">
         <v>1285</v>
       </c>
@@ -67205,7 +67217,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1288">
         <v>1286</v>
       </c>
@@ -67246,7 +67258,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1289" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1289">
         <v>1287</v>
       </c>
@@ -67287,7 +67299,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1290" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1290">
         <v>1288</v>
       </c>
@@ -67328,7 +67340,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1291" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1291">
         <v>1289</v>
       </c>
@@ -67369,7 +67381,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1292" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1292">
         <v>1290</v>
       </c>
@@ -67410,7 +67422,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1293" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1293">
         <v>1291</v>
       </c>
@@ -67451,7 +67463,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1294" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1294">
         <v>1292</v>
       </c>
@@ -67492,7 +67504,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1295" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1295">
         <v>1293</v>
       </c>
@@ -67533,7 +67545,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1296" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1296">
         <v>1294</v>
       </c>
@@ -67574,7 +67586,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1297" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1297">
         <v>1295</v>
       </c>
@@ -67615,7 +67627,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1298" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1298">
         <v>1296</v>
       </c>
@@ -67656,7 +67668,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1299" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1299">
         <v>1297</v>
       </c>
@@ -67697,7 +67709,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1300" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1300">
         <v>1298</v>
       </c>
@@ -67738,7 +67750,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1301" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1301">
         <v>1299</v>
       </c>
@@ -67779,7 +67791,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1302" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1302">
         <v>1300</v>
       </c>
@@ -67820,7 +67832,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1303" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1303">
         <v>1301</v>
       </c>
@@ -67861,7 +67873,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1304" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1304">
         <v>1302</v>
       </c>
@@ -67902,7 +67914,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1305" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1305">
         <v>1303</v>
       </c>
@@ -67943,7 +67955,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1306" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1306">
         <v>1304</v>
       </c>
@@ -67984,7 +67996,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1307" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1307">
         <v>1305</v>
       </c>
@@ -68025,7 +68037,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1308" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1308">
         <v>1306</v>
       </c>
@@ -68066,7 +68078,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1309" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1309">
         <v>1307</v>
       </c>
@@ -68107,7 +68119,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1310" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1310">
         <v>1308</v>
       </c>
@@ -68148,7 +68160,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1311" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1311">
         <v>1309</v>
       </c>
@@ -68189,7 +68201,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1312" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1312">
         <v>1310</v>
       </c>
@@ -68230,7 +68242,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1313" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1313">
         <v>1311</v>
       </c>
@@ -68271,7 +68283,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1314" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1314">
         <v>1312</v>
       </c>
@@ -68312,7 +68324,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1315" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1315">
         <v>1313</v>
       </c>
@@ -68353,7 +68365,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1316" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1316">
         <v>1314</v>
       </c>
@@ -68394,7 +68406,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1317" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1317">
         <v>1315</v>
       </c>
@@ -68435,7 +68447,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1318" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1318">
         <v>1316</v>
       </c>
@@ -68476,7 +68488,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1319" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1319">
         <v>1317</v>
       </c>
@@ -68517,7 +68529,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1320" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1320">
         <v>1318</v>
       </c>
@@ -68558,7 +68570,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1321" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1321">
         <v>1319</v>
       </c>
@@ -68599,7 +68611,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1322" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1322">
         <v>1320</v>
       </c>
@@ -73561,16 +73573,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1442" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="20"/>
-        <filter val="21"/>
-        <filter val="22"/>
-        <filter val="30"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1442" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
